--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9D76B5-7B83-45AE-BE68-DD9340E2A2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C003F-FEEF-4E04-8B97-47595681B1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -1955,7 +1955,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2086,9 +2086,9 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
-        <v>8</v>
+      <c r="A8" s="8" t="str">
+        <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
+        <v/>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="35"/>
@@ -2106,7 +2106,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18" t="str">
+        <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
+        <v/>
+      </c>
       <c r="B9" s="40"/>
       <c r="C9" s="36"/>
       <c r="D9" s="44"/>
@@ -2124,6 +2127,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="str">
+        <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
+        <v/>
+      </c>
       <c r="B10" s="39"/>
       <c r="C10" s="35"/>
       <c r="D10" s="43"/>
@@ -2140,7 +2147,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="18" t="str">
+        <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
+        <v/>
+      </c>
       <c r="B11" s="40"/>
       <c r="C11" s="36"/>
       <c r="D11" s="44"/>
@@ -2158,6 +2168,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
+        <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
+        <v/>
+      </c>
       <c r="B12" s="39"/>
       <c r="C12" s="35"/>
       <c r="D12" s="43"/>
@@ -2174,7 +2188,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="18" t="str">
+        <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
+        <v/>
+      </c>
       <c r="B13" s="40"/>
       <c r="C13" s="36"/>
       <c r="D13" s="44"/>
@@ -2192,6 +2209,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
+        <v/>
+      </c>
       <c r="B14" s="39"/>
       <c r="C14" s="35"/>
       <c r="D14" s="43"/>
@@ -2208,7 +2229,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="18" t="str">
+        <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
+        <v/>
+      </c>
       <c r="B15" s="40"/>
       <c r="C15" s="36"/>
       <c r="D15" s="44"/>
@@ -2226,6 +2250,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
+        <v/>
+      </c>
       <c r="B16" s="39"/>
       <c r="C16" s="35"/>
       <c r="D16" s="43"/>
@@ -2236,7 +2264,10 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="18" t="str">
+        <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
+        <v/>
+      </c>
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
       <c r="D17" s="44"/>
@@ -2248,6 +2279,10 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
+        <v/>
+      </c>
       <c r="B18" s="39"/>
       <c r="C18" s="35"/>
       <c r="D18" s="43"/>
@@ -2258,7 +2293,10 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="18" t="str">
+        <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
+        <v/>
+      </c>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="44"/>
@@ -2270,6 +2308,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
+        <v/>
+      </c>
       <c r="B20" s="39"/>
       <c r="C20" s="35"/>
       <c r="D20" s="43"/>
@@ -2277,7 +2319,10 @@
       <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="18" t="str">
+        <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
+        <v/>
+      </c>
       <c r="B21" s="40"/>
       <c r="C21" s="36"/>
       <c r="D21" s="44"/>
@@ -2286,6 +2331,10 @@
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
+        <v/>
+      </c>
       <c r="B22" s="39"/>
       <c r="C22" s="35"/>
       <c r="D22" s="43"/>
@@ -2293,7 +2342,10 @@
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="18" t="str">
+        <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
+        <v/>
+      </c>
       <c r="B23" s="40"/>
       <c r="C23" s="36"/>
       <c r="D23" s="44"/>
@@ -2302,6 +2354,10 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
+        <v/>
+      </c>
       <c r="B24" s="39"/>
       <c r="C24" s="35"/>
       <c r="D24" s="43"/>
@@ -2309,7 +2365,10 @@
       <c r="G24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="18" t="str">
+        <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
+        <v/>
+      </c>
       <c r="B25" s="40"/>
       <c r="C25" s="36"/>
       <c r="D25" s="44"/>
@@ -2318,6 +2377,10 @@
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
+        <v/>
+      </c>
       <c r="B26" s="39"/>
       <c r="C26" s="35"/>
       <c r="D26" s="43"/>
@@ -2325,7 +2388,10 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="18" t="str">
+        <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
+        <v/>
+      </c>
       <c r="B27" s="40"/>
       <c r="C27" s="36"/>
       <c r="D27" s="44"/>
@@ -2334,6 +2400,10 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
+        <v/>
+      </c>
       <c r="B28" s="39"/>
       <c r="C28" s="35"/>
       <c r="D28" s="43"/>
@@ -2341,7 +2411,10 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="18" t="str">
+        <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
+        <v/>
+      </c>
       <c r="B29" s="40"/>
       <c r="C29" s="36"/>
       <c r="D29" s="44"/>
@@ -2350,6 +2423,10 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
+        <v/>
+      </c>
       <c r="B30" s="39"/>
       <c r="C30" s="35"/>
       <c r="D30" s="43"/>
@@ -2357,7 +2434,10 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="18" t="str">
+        <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
+        <v/>
+      </c>
       <c r="B31" s="40"/>
       <c r="C31" s="36"/>
       <c r="D31" s="44"/>
@@ -2366,6 +2446,10 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="str">
+        <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
+        <v/>
+      </c>
       <c r="B32" s="39"/>
       <c r="C32" s="35"/>
       <c r="D32" s="43"/>
@@ -2373,7 +2457,10 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="18" t="str">
+        <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
+        <v/>
+      </c>
       <c r="B33" s="40"/>
       <c r="C33" s="36"/>
       <c r="D33" s="44"/>
@@ -2382,6 +2469,10 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="str">
+        <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
+        <v/>
+      </c>
       <c r="B34" s="39"/>
       <c r="C34" s="35"/>
       <c r="D34" s="43"/>
@@ -2389,7 +2480,10 @@
       <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="18" t="str">
+        <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
+        <v/>
+      </c>
       <c r="B35" s="40"/>
       <c r="C35" s="36"/>
       <c r="D35" s="44"/>
@@ -2398,6 +2492,10 @@
       <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="str">
+        <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
+        <v/>
+      </c>
       <c r="B36" s="39"/>
       <c r="C36" s="35"/>
       <c r="D36" s="43"/>
@@ -2405,7 +2503,10 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="18" t="str">
+        <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
+        <v/>
+      </c>
       <c r="B37" s="40"/>
       <c r="C37" s="36"/>
       <c r="D37" s="44"/>
@@ -2414,6 +2515,10 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="str">
+        <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
+        <v/>
+      </c>
       <c r="B38" s="39"/>
       <c r="C38" s="35"/>
       <c r="D38" s="43"/>
@@ -2421,7 +2526,10 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="18" t="str">
+        <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
+        <v/>
+      </c>
       <c r="B39" s="40"/>
       <c r="C39" s="36"/>
       <c r="D39" s="44"/>
@@ -2430,6 +2538,10 @@
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="str">
+        <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
+        <v/>
+      </c>
       <c r="B40" s="39"/>
       <c r="C40" s="35"/>
       <c r="D40" s="43"/>
@@ -2437,7 +2549,10 @@
       <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="18" t="str">
+        <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
+        <v/>
+      </c>
       <c r="B41" s="40"/>
       <c r="C41" s="36"/>
       <c r="D41" s="44"/>
@@ -2446,6 +2561,10 @@
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="str">
+        <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
+        <v/>
+      </c>
       <c r="B42" s="39"/>
       <c r="C42" s="35"/>
       <c r="D42" s="43"/>
@@ -2453,7 +2572,10 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="18" t="str">
+        <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
+        <v/>
+      </c>
       <c r="B43" s="40"/>
       <c r="C43" s="36"/>
       <c r="D43" s="44"/>
@@ -2462,6 +2584,10 @@
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="str">
+        <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
+        <v/>
+      </c>
       <c r="B44" s="39"/>
       <c r="C44" s="35"/>
       <c r="D44" s="43"/>
@@ -2469,7 +2595,10 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+      <c r="A45" s="18" t="str">
+        <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
+        <v/>
+      </c>
       <c r="B45" s="40"/>
       <c r="C45" s="36"/>
       <c r="D45" s="44"/>
@@ -2478,6 +2607,10 @@
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="str">
+        <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
+        <v/>
+      </c>
       <c r="B46" s="39"/>
       <c r="C46" s="35"/>
       <c r="D46" s="43"/>
@@ -2485,7 +2618,10 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
+      <c r="A47" s="18" t="str">
+        <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
+        <v/>
+      </c>
       <c r="B47" s="40"/>
       <c r="C47" s="36"/>
       <c r="D47" s="44"/>
@@ -2494,6 +2630,10 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="str">
+        <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
+        <v/>
+      </c>
       <c r="B48" s="39"/>
       <c r="C48" s="35"/>
       <c r="D48" s="43"/>
@@ -2501,7 +2641,10 @@
       <c r="G48" s="17"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="18" t="str">
+        <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
+        <v/>
+      </c>
       <c r="B49" s="40"/>
       <c r="C49" s="36"/>
       <c r="D49" s="44"/>
@@ -2510,6 +2653,10 @@
       <c r="G49" s="20"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="str">
+        <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
+        <v/>
+      </c>
       <c r="B50" s="39"/>
       <c r="C50" s="35"/>
       <c r="D50" s="43"/>
@@ -2517,7 +2664,10 @@
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="18" t="str">
+        <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
+        <v/>
+      </c>
       <c r="B51" s="40"/>
       <c r="C51" s="36"/>
       <c r="D51" s="44"/>
@@ -2526,6 +2676,10 @@
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="str">
+        <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
+        <v/>
+      </c>
       <c r="B52" s="39"/>
       <c r="C52" s="35"/>
       <c r="D52" s="43"/>
@@ -2533,7 +2687,10 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="18" t="str">
+        <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
+        <v/>
+      </c>
       <c r="B53" s="40"/>
       <c r="C53" s="36"/>
       <c r="D53" s="44"/>
@@ -2542,6 +2699,10 @@
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="str">
+        <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
+        <v/>
+      </c>
       <c r="B54" s="39"/>
       <c r="C54" s="35"/>
       <c r="D54" s="43"/>
@@ -2549,7 +2710,10 @@
       <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="18" t="str">
+        <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
+        <v/>
+      </c>
       <c r="B55" s="40"/>
       <c r="C55" s="36"/>
       <c r="D55" s="44"/>
@@ -8288,18 +8452,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8565,6 +8717,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8574,20 +8738,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8605,4 +8755,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C003F-FEEF-4E04-8B97-47595681B1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092BD24-CEF0-4269-A471-065BE2E630E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Napoleone Cyril</t>
+  </si>
+  <si>
+    <t>Maquette de l'application (FIGMA)</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.0833333333333332E-2</c:v>
@@ -1955,7 +1958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A288" sqref="A288"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2011,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 30 minutes</v>
+        <v>0 jours 2 heurs 0 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2023,15 +2026,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2068,10 +2071,10 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="38">
-        <v>45344</v>
+        <v>45369</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="42">
@@ -2086,14 +2089,25 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
-        <v/>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="43"/>
-      <c r="F8" s="48"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="39">
+        <v>45369</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="D8" s="43">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="17"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -2173,7 +2187,7 @@
         <v/>
       </c>
       <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="43"/>
       <c r="F12" s="48"/>
       <c r="G12" s="17"/>
@@ -8239,7 +8253,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C11 C13:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
       <formula1>$N$7:$N$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D532" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
@@ -8399,7 +8413,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C10" s="49" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8407,7 +8421,7 @@
       </c>
       <c r="D10" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -8430,7 +8444,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092BD24-CEF0-4269-A471-065BE2E630E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C47CA-785B-4C2F-895F-E8BF2186E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Maquette de l'application (FIGMA)</t>
+  </si>
+  <si>
+    <t>Absent car rendez-vous au SAN</t>
+  </si>
+  <si>
+    <t>Intro à la séquence d'aujourd'hui</t>
+  </si>
+  <si>
+    <t>Fin de la maquette</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1054,7 @@
                   <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +1967,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2020,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 0 minutes</v>
+        <v>0 jours 5 heurs 20 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2026,15 +2035,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2120,15 +2129,23 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="str">
+      <c r="A9" s="18">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="40">
+        <v>45369</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1</v>
+      </c>
       <c r="D9" s="44"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -2141,14 +2158,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="39">
+        <v>45376</v>
+      </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="43"/>
-      <c r="F10" s="48"/>
+      <c r="D10" s="43">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -2161,15 +2187,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="18">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="36"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="40">
+        <v>45376</v>
+      </c>
+      <c r="C11" s="36">
+        <v>2</v>
+      </c>
       <c r="D11" s="44"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -8427,7 +8461,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8435,7 +8469,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8444,7 +8478,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72C47CA-785B-4C2F-895F-E8BF2186E156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A52FE-9DB6-4989-9A82-ED47873F2114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Fin de la maquette</t>
+  </si>
+  <si>
+    <t>Reinstallation de l'émulateur (très lourd) car mon fichier était considéré comme "corrompu"</t>
+  </si>
+  <si>
+    <t>Création projet visual studio, problème avec l'ajout de l'éumulateur à vs. + recherches sur fonctionnement code pour mon app</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1042,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.2083333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1967,7 +1973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2026,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 5 heurs 20 minutes</v>
+        <v>0 jours 7 heurs 35 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2035,15 +2041,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2216,14 +2222,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="39">
+        <v>45397</v>
+      </c>
+      <c r="C12" s="35">
+        <v>1</v>
+      </c>
       <c r="D12" s="43"/>
-      <c r="F12" s="48"/>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>34</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2235,16 +2250,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="str">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="40">
+        <v>45397</v>
+      </c>
+      <c r="C13" s="36">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -8287,7 +8312,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C11 C13:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
       <formula1>$N$7:$N$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D532" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
@@ -8357,11 +8382,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8369,7 +8394,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8478,7 +8503,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.1076388888888889</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8500,6 +8525,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8765,18 +8802,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8786,6 +8811,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8803,18 +8842,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7A52FE-9DB6-4989-9A82-ED47873F2114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE084D9-66BA-4A1B-9CB9-36FEF95CD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Création projet visual studio, problème avec l'ajout de l'éumulateur à vs. + recherches sur fonctionnement code pour mon app</t>
+  </si>
+  <si>
+    <t>Commencement code, structuration par rapport à la maquette</t>
+  </si>
+  <si>
+    <t>Fonction "d'ajout de livres" dans une classe book donc renseigment sur le .Add() et tout ce qui va avec (plus compliqué que prévu)</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1048,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2083333333333336E-2</c:v>
+                  <c:v>0.14583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1973,7 +1979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2032,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 7 heurs 35 minutes</v>
+        <v>0 jours 9 heurs 49 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2041,15 +2047,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>455</v>
+        <v>590</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2287,9 +2293,18 @@
         <v/>
       </c>
       <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="35">
+        <v>1</v>
+      </c>
+      <c r="D14" s="43">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>24</v>
@@ -2301,16 +2316,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="str">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v/>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
+      <c r="C15" s="36">
+        <v>1</v>
+      </c>
       <c r="D15" s="44"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="M15" t="s">
         <v>25</v>
@@ -8382,11 +8403,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8394,7 +8415,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>5.2083333333333336E-2</v>
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8503,7 +8524,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.1076388888888889</v>
+        <v>0.2013888888888889</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8525,18 +8546,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8802,6 +8811,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8811,20 +8832,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8842,4 +8849,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE084D9-66BA-4A1B-9CB9-36FEF95CD37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CA3ECF-D92D-46D2-9604-EC452C84792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Fonction "d'ajout de livres" dans une classe book donc renseigment sur le .Add() et tout ce qui va avec (plus compliqué que prévu)</t>
+  </si>
+  <si>
+    <t>Class et ajout de livre fonctionnelle (static local)</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2288,11 +2291,13 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="39"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="39">
+        <v>45404</v>
+      </c>
       <c r="C14" s="35">
         <v>1</v>
       </c>
@@ -2317,11 +2322,13 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="18">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="40">
+        <v>45404</v>
+      </c>
       <c r="C15" s="36">
         <v>1</v>
       </c>
@@ -2351,7 +2358,9 @@
       <c r="B16" s="39"/>
       <c r="C16" s="35"/>
       <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
+      <c r="F16" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="O16">
         <v>40</v>
@@ -8546,6 +8555,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8811,18 +8832,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8832,6 +8841,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8849,18 +8872,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CA3ECF-D92D-46D2-9604-EC452C84792D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF5E47-E5E5-4D3F-AFFD-D58D5827A30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Class et ajout de livre fonctionnelle (static local)</t>
+  </si>
+  <si>
+    <t>j'ai essayer encore et encore de faire marcher les fichiers epub (que je ne comprend pas) mais sans succès</t>
+  </si>
+  <si>
+    <t>transformation de l'app pour l'orienter api</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1057,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14583333333333334</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1982,7 +1988,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2041,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 9 heurs 49 minutes</v>
+        <v>0 jours 16 heurs 20 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2050,15 +2056,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>480</v>
+        <v>840</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>590</v>
+        <v>980</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2351,13 +2357,20 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
+        <v>18</v>
+      </c>
+      <c r="B16" s="39">
+        <v>45411</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2</v>
+      </c>
       <c r="D16" s="43"/>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
       <c r="F16" s="48" t="s">
         <v>38</v>
       </c>
@@ -2366,30 +2379,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="str">
+    <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="48"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="40">
+        <v>45418</v>
+      </c>
+      <c r="C17" s="36">
+        <v>2</v>
+      </c>
+      <c r="D17" s="44">
+        <v>30</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="39">
+        <v>45426</v>
+      </c>
+      <c r="C18" s="35">
+        <v>2</v>
+      </c>
       <c r="D18" s="43"/>
-      <c r="F18" s="48"/>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="O18">
         <v>50</v>
@@ -8412,11 +8444,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8424,7 +8456,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.14583333333333334</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8533,7 +8565,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.2013888888888889</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8555,18 +8587,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8832,6 +8852,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8841,20 +8873,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8872,4 +8890,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_NapoleoneCyril.xlsx
+++ b/docs/Journal-de-Travail_NapoleoneCyril.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pt63blc\Documents\GitHub\P_App\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\P_App-README\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF5E47-E5E5-4D3F-AFFD-D58D5827A30E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B110B8-B289-43FB-9091-2A2A67305420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>transformation de l'app pour l'orienter api</t>
+  </si>
+  <si>
+    <t>Reinitialisation de l'environment car ne marche plus (+reinstallation de l'emu)</t>
+  </si>
+  <si>
+    <t>Essais de modifications du backend pour faire fonctionner le projet</t>
+  </si>
+  <si>
+    <t>[FAIT A LA MAISON] essais encore et encore de faire marcher mon projet en vain. jusqu'à un point où, pour la 3eme fois, mon projet ne se lance plus. J'ai donc malheureusement preféré revenir é mon code (incomplet certes) initial statique</t>
   </si>
 </sst>
 </file>
@@ -458,6 +467,80 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -620,80 +703,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1057,7 +1066,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.60416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1781,18 +1790,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1988,7 +1997,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2050,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 16 heurs 20 minutes</v>
+        <v>0 jours 20 heurs 50 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2056,15 +2065,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>840</v>
+        <v>1080</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>980</v>
+        <v>1250</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2428,41 +2437,68 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="str">
+      <c r="A19" s="18">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="40">
+        <v>45439</v>
+      </c>
+      <c r="C19" s="36">
+        <v>1</v>
+      </c>
       <c r="D19" s="44"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="20"/>
       <c r="O19">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="39">
+        <v>45439</v>
+      </c>
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
       <c r="D20" s="43"/>
-      <c r="F20" s="48"/>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>42</v>
+      </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="str">
+    <row r="21" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="48"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="40">
+        <v>45439</v>
+      </c>
+      <c r="C21" s="36">
+        <v>2</v>
+      </c>
+      <c r="D21" s="44">
+        <v>30</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>43</v>
+      </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8348,28 +8384,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8444,11 +8480,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>540</v>
+        <v>780</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8456,7 +8492,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.41666666666666669</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8565,7 +8601,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.47222222222222221</v>
+        <v>0.65972222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8587,6 +8623,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8852,18 +8900,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8873,6 +8909,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8890,18 +8940,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>